--- a/site/Manual/source/CZ/tab/connectors.xlsx
+++ b/site/Manual/source/CZ/tab/connectors.xlsx
@@ -5,19 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="X1_24V_5pin_BCZ" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="X2_48_DC_1778065" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="X8_IO_22pin_BCZ" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="X10_CAN_4pin_BCZ" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="LEDsigAx12" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="X5_FBE_12pin_BCZ" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="X6_FB1_8pin_BCZ" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="X7_FB2_8pin_BCZ" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="X3_M1_6pin_BLZP" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="X4_M2_6pin_BLZP" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="X1_24V_5pin_BCZ" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="X2_48_DC_1778065" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="X8_IO_22pin_BCZ" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="X10_CAN_4pin_BCZ" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="LEDsigAx12" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="X5_FBE_12pin_BCZ" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="X6_FB1_8pin_BCZ" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="X7_FB2_8pin_BCZ" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="X3_M1_6pin_BLZP" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="X4_M2_6pin_BLZP" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="X1_24V_5pin_Microlock" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="X3_DCbus_2pin_pressfit" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="X3_M1_3pin_pressfit" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="X4_BR_4pin_Microlock" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +34,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="153">
+  <si>
+    <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">výrobce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">řada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">počet OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">napětí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmen. Proud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">špičkový proud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typ konektoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X1_24V_5pin_Microlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X8_IO_22pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X10_CAN_4pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X6_FB1_8pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X7_FB2_8pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X5_FBE_12pin_BCZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_M1_3pin_pressfit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dcbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#X3_DCbus_2pin_pressfit</t>
+  </si>
   <si>
     <t xml:space="preserve">Pin č.</t>
   </si>
@@ -399,6 +488,48 @@
   <si>
     <t xml:space="preserve">Fáze U</t>
   </si>
+  <si>
+    <t xml:space="preserve">0,13 ~ 0,32 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Připojení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oko M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+6 ~ +50 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fáze W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fáze V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fáze U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tepl. čidla mot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Tepl. čidla mot.</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -433,6 +564,13 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -446,12 +584,18 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,12 +632,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -506,6 +666,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -514,104 +734,257 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.81"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D9" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H6"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="F9:F16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H9" location="X1_24V_5pin_Microlock!A1" display="#X1_24V_5pin_Microlock"/>
+    <hyperlink ref="H10" location="X8_IO_22pin_BCZ!A1" display="#X8_IO_22pin_BCZ"/>
+    <hyperlink ref="H11" location="X10_CAN_4pin_BCZ!A1" display="#X10_CAN_4pin_BCZ"/>
+    <hyperlink ref="H12" location="X6_FB1_8pin_BCZ!A1" display="#X6_FB1_8pin_BCZ"/>
+    <hyperlink ref="H13" location="X7_FB2_8pin_BCZ!A1" display="#X7_FB2_8pin_BCZ"/>
+    <hyperlink ref="H14" location="X5_FBE_12pin_BCZ!A1" display="#X5_FBE_12pin_BCZ"/>
+    <hyperlink ref="H15" location="X3_M1_3pin_pressfit!A1" display="#X3_M1_3pin_pressfit"/>
+    <hyperlink ref="H16" location="X3_DCbus_2pin_pressfit!A1" display="#X3_DCbus_2pin_pressfit"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -629,11 +1002,11 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -642,16 +1015,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,13 +1046,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,13 +1088,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,22 +1102,526 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -757,26 +1634,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,13 +1680,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -823,30 +1747,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,13 +1774,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,293 +1788,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1173,30 +1813,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1204,13 +1844,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,13 +1886,265 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1271,39 +2163,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>71</v>
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>73</v>
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1322,203 +2261,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1539,10 +2315,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1551,16 +2327,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,13 +2344,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,13 +2358,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,13 +2372,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,13 +2386,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,13 +2400,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,13 +2414,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,13 +2428,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,17 +2442,73 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1700,7 +2532,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1709,16 +2541,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,13 +2558,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,13 +2572,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,13 +2586,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,13 +2600,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,13 +2628,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,17 +2656,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1855,10 +2687,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1867,16 +2699,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,13 +2716,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,13 +2744,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,13 +2758,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,13 +2772,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,17 +2786,45 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/site/Manual/source/CZ/tab/connectors.xlsx
+++ b/site/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,14 @@
     <sheet name="X3_DCbus_2pin_pressfit" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="X3_M1_3pin_pressfit" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="X4_BR_4pin_Microlock" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="X3_M1_4pin_wago_2626" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="X4_M2_4pin_wago_2626" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="XBR_BR_6pin_BLF" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="X1_24V_5pin_Microfit" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="P7_BR_4pin_Microfit" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="P8_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="P3_Term_2pin_Microfit" sheetId="23" state="visible" r:id="rId24"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -530,13 +538,92 @@
   <si>
     <t xml:space="preserve">+ Tepl. čidla mot.</t>
   </si>
+  <si>
+    <t xml:space="preserve">uzemnění</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,75 ~ 16 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2 ~ 10 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzda motor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,13 ~ 2,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzda motor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– Napájení brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzda motor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzda motor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+24V DC napájení řízení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,05 ~ 0,75 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCC_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Výstup +24 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+24V DC napájení brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+24V DC napájení diag. brzdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzda servomotoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzda servomotoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nezapojuje se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0V napájení řízení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teplotní čidlo PT1000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -632,7 +719,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -655,6 +742,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -736,8 +827,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,7 +1541,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1538,7 +1629,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1622,6 +1713,429 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <f aca="false">+B2</f>
+        <v>-B2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -1729,6 +2243,392 @@
       </c>
       <c r="D6" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/site/Manual/source/CZ/tab/connectors.xlsx
+++ b/site/Manual/source/CZ/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,9 @@
     <sheet name="P7_BR_4pin_Microfit" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="P8_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="P3_Term_2pin_Microfit" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="X4_M1_6pin_SLS" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="X2_PWR_10pin_BLZP" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="X2_320_DC_1778078" sheetId="26" state="visible" r:id="rId27"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="199">
   <si>
     <t xml:space="preserve">Toto je sešit se zdrojovými tabulkami popisu konektorů TGZ/TGS v češtině. Každý list odpovídá jednomu unikátnímu typu konektoru. Jelikož se často konektory v rámci TGZ opakují (typicky ty na řídicií desce), jsou zde jen jednou. Tj. Např. IO konektor 22pin weidmuller BCZ se používá pořád dokola, je zde tedy zanesen jen jednou jako „X8_IO_22pin_BCZ“</t>
   </si>
@@ -615,6 +618,66 @@
   </si>
   <si>
     <t xml:space="preserve">Teplotní čidlo PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2 ~ 2,5 mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Střední pracovní vodič</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fáze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+RB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Brzdný odpor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-RB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Brzdný odpor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Napájení meziobvodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Napájení meziobvodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Termistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+140 ~ +320V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. 6 mm2</t>
   </si>
 </sst>
 </file>
@@ -724,16 +787,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -746,6 +805,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -831,9 +894,9 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.81"/>
   </cols>
@@ -980,7 +1043,7 @@
       <c r="G11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -993,7 +1056,7 @@
       <c r="G12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1006,7 +1069,7 @@
       <c r="G13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1019,7 +1082,7 @@
       <c r="G14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1032,7 +1095,7 @@
       <c r="G15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1045,7 +1108,7 @@
       <c r="G16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1097,7 +1160,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1203,7 +1266,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1227,7 +1290,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1333,7 +1396,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1357,7 +1420,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -1470,7 +1533,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1520,7 +1583,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1544,7 +1607,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1608,7 +1671,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1632,7 +1695,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -1731,7 +1794,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1795,7 +1858,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1819,7 +1882,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1897,7 +1960,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1921,7 +1984,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -1999,7 +2062,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2023,7 +2086,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.23"/>
@@ -2048,7 +2111,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2105,7 +2168,7 @@
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2119,7 +2182,7 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2130,7 +2193,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2154,7 +2217,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.38"/>
@@ -2267,11 +2330,11 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.83"/>
   </cols>
   <sheetData>
@@ -2381,7 +2444,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2481,7 +2544,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2577,11 +2640,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.38"/>
@@ -2629,6 +2692,405 @@
       </c>
       <c r="D3" s="0" t="s">
         <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +3115,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2719,7 +3181,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.72"/>
@@ -3069,7 +3531,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
@@ -3167,7 +3629,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
   </cols>
@@ -3218,7 +3680,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -3408,7 +3870,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3432,7 +3894,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -3566,7 +4028,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3590,7 +4052,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
@@ -3724,7 +4186,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
